--- a/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
+++ b/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
@@ -4,26 +4,86 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5460" yWindow="1665" windowWidth="14955" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>EmailID1</t>
+  </si>
+  <si>
+    <t>EmailID2</t>
+  </si>
+  <si>
+    <t>PassWord1</t>
+  </si>
+  <si>
+    <t>PassWord2</t>
+  </si>
+  <si>
+    <t>InPassWord1</t>
+  </si>
+  <si>
+    <t>InPassWord2</t>
+  </si>
+  <si>
+    <t>https://www.moneysupermarket.com/</t>
+  </si>
+  <si>
+    <t>Divya555@gmail.com</t>
+  </si>
+  <si>
+    <t>divya888@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya))@gmail.com</t>
+  </si>
+  <si>
+    <t>a@@</t>
+  </si>
+  <si>
+    <t>pass123</t>
+  </si>
+  <si>
+    <t>pass555</t>
+  </si>
+  <si>
+    <t>InEmailID1</t>
+  </si>
+  <si>
+    <t>InEmailID2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,14 +102,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,13 +425,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123</v>
+      </c>
+      <c r="I2" s="3">
+        <v>123123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4" display="123@"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
+++ b/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1665" windowWidth="14955" windowHeight="6330"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,54 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>EmailID1</t>
-  </si>
-  <si>
-    <t>EmailID2</t>
-  </si>
-  <si>
-    <t>PassWord1</t>
-  </si>
-  <si>
-    <t>PassWord2</t>
-  </si>
-  <si>
-    <t>InPassWord1</t>
-  </si>
-  <si>
-    <t>InPassWord2</t>
+    <t>prabu@gmail.com</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>!@#$@gmail.com</t>
+  </si>
+  <si>
+    <t>divya@gmail.com</t>
+  </si>
+  <si>
+    <t>InEmail1</t>
+  </si>
+  <si>
+    <t>InEmail2</t>
+  </si>
+  <si>
+    <t>prabu@gmail</t>
+  </si>
+  <si>
+    <t>Pass1</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>InPass1</t>
+  </si>
+  <si>
+    <t>InPass2</t>
+  </si>
+  <si>
+    <t>prabu123</t>
+  </si>
+  <si>
+    <t>divya123</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>&gt;?&gt;?&gt;?&gt;?</t>
   </si>
   <si>
     <t>https://www.moneysupermarket.com/</t>
-  </si>
-  <si>
-    <t>Divya555@gmail.com</t>
-  </si>
-  <si>
-    <t>divya888@gmail.com</t>
-  </si>
-  <si>
-    <t>Divya))@gmail.com</t>
-  </si>
-  <si>
-    <t>a@@</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>pass555</t>
-  </si>
-  <si>
-    <t>InEmailID1</t>
-  </si>
-  <si>
-    <t>InEmailID2</t>
   </si>
 </sst>
 </file>
@@ -128,8 +134,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,20 +434,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -449,57 +449,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2">
-        <v>123</v>
-      </c>
-      <c r="I2" s="3">
-        <v>123123</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -507,10 +507,10 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4" display="123@"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
+++ b/MoneySuperMarket/src/Resources/Excel/Inputs_MSM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14595" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -42,9 +43,6 @@
     <t>InEmail2</t>
   </si>
   <si>
-    <t>prabu@gmail</t>
-  </si>
-  <si>
     <t>Pass1</t>
   </si>
   <si>
@@ -70,6 +68,9 @@
   </si>
   <si>
     <t>https://www.moneysupermarket.com/</t>
+  </si>
+  <si>
+    <t>Wrong@gmat</t>
   </si>
 </sst>
 </file>
@@ -434,7 +435,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,21 +462,21 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -484,22 +485,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
